--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -47,18 +47,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,75 +421,77 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.85546875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="27.7109375" customWidth="1" style="5" min="7" max="7"/>
+    <col width="15.85546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="27.7109375" customWidth="1" style="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Race</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Money</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Against_odds</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Jokey</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Win_Lost</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Bank</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>0.2673611111111111</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11 Oct</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0.2916666666666667</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gosford</t>
+          <t>Echuca</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,27 +500,30 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5422</v>
+        <v>13314</v>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hoover</t>
+          <t>Tibetan
+H Coffey</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>0.2673611111111111</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>11 Oct</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0.2916666666666667</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Turda</t>
+          <t>Echuca</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -532,27 +532,30 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5422</v>
+        <v>13314</v>
       </c>
       <c r="F3" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hoover</t>
+          <t>Tibetan
+H Coffey</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>0.2673611111111111</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11 Oct</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0.2916666666666667</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dej</t>
+          <t>Echuca</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -561,27 +564,30 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5422</v>
+        <v>13314</v>
       </c>
       <c r="F4" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hoover</t>
+          <t>Tibetan
+H Coffey</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>0.2673611111111111</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>11 Oct</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0.2916666666666667</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aghires</t>
+          <t>Echuca</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -590,27 +596,30 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5422</v>
+        <v>13314</v>
       </c>
       <c r="F5" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hoover</t>
+          <t>Tibetan
+H Coffey</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.2673611111111111</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12 Oct</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0.2604166666666667</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Juc</t>
+          <t>Queanbeyan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -619,27 +628,30 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5422</v>
+        <v>18905</v>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hoover</t>
+          <t>Accrue
+Michael Heagney</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.2673611111111111</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12 Oct</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.2708333333333333</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Apahida</t>
+          <t>Kyneton</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -648,27 +660,30 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5422</v>
+        <v>5028</v>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>120</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hoover</t>
+          <t>Ask Isla
+Christine Puls</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.2673611111111111</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12 Oct</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.2916666666666667</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Teius</t>
+          <t>Kyneton</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -677,72 +692,15 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5422</v>
+        <v>6988</v>
       </c>
       <c r="F8" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hoover</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Gherla</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>AUS</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>5422</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Hoover</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Moci</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>AUS</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>5422</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Hoover</t>
+          <t>Daario
+Damian Lane</t>
         </is>
       </c>
     </row>
